--- a/excel/users.xlsx
+++ b/excel/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Last Scan</t>
   </si>
   <si>
-    <t>Garrett</t>
-  </si>
-  <si>
-    <t>Kaplan</t>
-  </si>
-  <si>
-    <t>wlshrdntst@gmail.com</t>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>lefebvre</t>
+  </si>
+  <si>
+    <t>wilshire@gmail.com</t>
   </si>
   <si>
     <t>admin</t>
@@ -55,25 +55,16 @@
     <t/>
   </si>
   <si>
-    <t>emily</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>emily@example.com</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>(2)2x2 Gauze, 2x2 Gauze</t>
-  </si>
-  <si>
-    <t>Fri Jun 02 2023 20:22:33 GMT-0700 (Pacific Daylight Time), Fri Jun 02 2023 20:22:51 GMT-0700 (Pacific Daylight Time)</t>
+    <t>Atikul</t>
+  </si>
+  <si>
+    <t>Jaman</t>
+  </si>
+  <si>
+    <t>atikul@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee</t>
   </si>
 </sst>
 </file>
@@ -109,9 +100,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,9 +486,6 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
-        <v>45080.141382002315</v>
-      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
@@ -511,25 +498,22 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45080.139539027776</v>
-      </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/users.xlsx
+++ b/excel/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>samira</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Rahaman</t>
+  </si>
+  <si>
+    <t>samira@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new </t>
+  </si>
+  <si>
+    <t>password123@gmail.com</t>
+  </si>
+  <si>
+    <t>(4)3x10 Sterilization Pouches, 3x10 Sterilization Pouches, 3x10 Sterilization Pouches, Cavit</t>
+  </si>
+  <si>
+    <t>Mon Jun 10 2024 10:18:26 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:19:48 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:20:14 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:21:24 GMT+0600 (Bangladesh Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -514,6 +541,52 @@
       </c>
       <c r="H3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/excel/users.xlsx
+++ b/excel/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -88,10 +88,13 @@
     <t>password123@gmail.com</t>
   </si>
   <si>
-    <t>(4)3x10 Sterilization Pouches, 3x10 Sterilization Pouches, 3x10 Sterilization Pouches, Cavit</t>
-  </si>
-  <si>
-    <t>Mon Jun 10 2024 10:18:26 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:19:48 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:20:14 GMT+0600 (Bangladesh Standard Time), Mon Jun 10 2024 10:21:24 GMT+0600 (Bangladesh Standard Time)</t>
+    <t>new test</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,10 +586,33 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
